--- a/biology/Médecine/Liste_de_maladies_rares/Liste_de_maladies_rares.xlsx
+++ b/biology/Médecine/Liste_de_maladies_rares/Liste_de_maladies_rares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aagenaes, syndrome d'
 Aarskog, syndrome d' Voir Facio-digito-génital, syndrome
@@ -1128,7 +1142,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Babésiose ou Babésiellose
 Bader, syndrome de
@@ -1374,7 +1390,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cacchi-Ricci, maladie de
 CACH, syndrome
@@ -1918,7 +1936,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dacryocystite ostéopoikilose
 Daentl-Townsend-Siegel, syndrome de
@@ -2527,7 +2547,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Eales, maladie d'
 Ebola, fièvre d'
@@ -2726,7 +2748,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fabry, maladie de
 Face anomalies arthrogrypose âge osseux avancé
@@ -2973,7 +2997,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>G syndrome
 G6PD, déficit en
@@ -3170,7 +3196,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Haas chir robinson, syndrome de
 Hagemoser weinstein bresnick, syndrome de
@@ -3601,7 +3629,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>IBIDS syndrome
 ICCA syndrome
@@ -3703,7 +3733,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jabs houk bias, syndrome de
 Jackson barr, syndrome de
@@ -3757,7 +3789,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kabuki, syndrome de
 Kahler, maladie de
@@ -3908,7 +3942,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Laband, syndrome de
 Lachiewicz sibley, syndrome de
@@ -4167,7 +4203,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Maaswinkel mooij stokvis brantsma, syndrome de
 Maccario mena, syndrome de
@@ -4452,7 +4490,7 @@
 Mitochondriales, maladies (cliniquement non définies)
 Mitochondriales, maladies (terme générique)
 Miura, syndrome de
-Mix(o)ploïdie 47,XXX/94,XXXXXX (trisomie &amp; hypertétraploïdie)[1]
+Mix(o)ploïdie 47,XXX/94,XXXXXX (trisomie &amp; hypertétraploïdie)
 Mls, syndrome
 Mmep, syndrome
 MNGIE, syndrome
@@ -4701,7 +4739,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>N5-méthylhomocystéine transférase, déficit en
 N-acétyl-alpha-glucosaminidase, déficit en
@@ -4891,7 +4931,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ochoa, syndrome de
 Ochronose héréditaire
@@ -5084,7 +5126,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>P2Y12, récepteur plaquettaire de l'ADP, déficit en
 Pachydermie plicaturée du cuir chevelu
@@ -5559,7 +5603,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>QT long familial, syndrome du
 QT court, syndrome du
@@ -5591,7 +5637,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Rabson-Mendenhall, syndrome de
 Rachis rigide cardiomyopathie
@@ -5834,7 +5882,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Saal bulas, syndrome de
 Saal greenstein, syndrome de
@@ -6217,7 +6267,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tabatznik, syndrome de
 Tache de vin nævus hydrocéphalie
@@ -6563,7 +6615,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Uhl, anomalie d'
 Ulbright hodes, syndrome d'
@@ -6607,7 +6661,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>VACTERL association
 Vacterl hydrocéphalie
@@ -6681,7 +6737,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Waaler Aarskog, syndrome de
 Waardenburg, syndrome de (terme générique)
@@ -6779,7 +6837,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Xanthine déshydrogénase, déficit en
 Xanthinurie
@@ -6815,7 +6875,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yersiniose
 Yeux de chat, syndrome des
@@ -6852,7 +6914,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Zadik Barak Levin, syndrome de
 ZAP70, déficit en
@@ -6890,7 +6954,9 @@
           <t>0, 1 ou 2 à 49 (maladies dont le nom commence par un numéro)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>2,4-@diénoyl-CoA réductase, déficit en
 2,8 dihydroxy-adénine urolithiase
@@ -6949,7 +7015,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Maladies rares,
 (en) site de renseignement sur les maladies rares et les médicaments orphelins.</t>
@@ -6980,7 +7048,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ First report of a patient with a mixoploidy 47,XXX/94,XXXXXX ; in NCBI / National Center for Biotechnology Information, NLM / National Library of Medicine's NIH's pubmed.ncbi.nlm.nih.gov (USA.gov).
